--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>490.0158134209889</v>
+        <v>641.310417521325</v>
       </c>
       <c r="R2">
-        <v>4410.1423207889</v>
+        <v>5771.793757691925</v>
       </c>
       <c r="S2">
-        <v>0.01490010447086456</v>
+        <v>0.05547961317543158</v>
       </c>
       <c r="T2">
-        <v>0.01490010447086455</v>
+        <v>0.05547961317543158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>31.0343317557</v>
+        <v>41.089322804985</v>
       </c>
       <c r="R3">
-        <v>279.3089858013</v>
+        <v>369.8039052448649</v>
       </c>
       <c r="S3">
-        <v>0.0009436731890652751</v>
+        <v>0.003554627638315581</v>
       </c>
       <c r="T3">
-        <v>0.0009436731890652747</v>
+        <v>0.003554627638315581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>2.763953793388888</v>
+        <v>7.112390349869999</v>
       </c>
       <c r="R4">
-        <v>24.8755841405</v>
+        <v>64.01151314882999</v>
       </c>
       <c r="S4">
-        <v>8.404463518558934E-05</v>
+        <v>0.0006152912140248196</v>
       </c>
       <c r="T4">
-        <v>8.404463518558933E-05</v>
+        <v>0.0006152912140248197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>142.4586708031889</v>
+        <v>111.379571087445</v>
       </c>
       <c r="R5">
-        <v>1282.1280372287</v>
+        <v>1002.416139787005</v>
       </c>
       <c r="S5">
-        <v>0.004331797096361008</v>
+        <v>0.009635420462153115</v>
       </c>
       <c r="T5">
-        <v>0.004331797096361007</v>
+        <v>0.009635420462153115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.2730733571</v>
+        <v>4.697969182335</v>
       </c>
       <c r="R6">
-        <v>2.4576602139</v>
+        <v>42.281722641015</v>
       </c>
       <c r="S6">
-        <v>8.303449475627523E-06</v>
+        <v>0.000406420207476791</v>
       </c>
       <c r="T6">
-        <v>8.303449475627518E-06</v>
+        <v>0.0004064202074767911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>2665.861476039774</v>
+        <v>2635.173368048045</v>
       </c>
       <c r="R7">
-        <v>23992.75328435796</v>
+        <v>23716.5603124324</v>
       </c>
       <c r="S7">
-        <v>0.08106190333029038</v>
+        <v>0.2279682274218527</v>
       </c>
       <c r="T7">
-        <v>0.08106190333029037</v>
+        <v>0.2279682274218528</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
         <v>168.837876648441</v>
@@ -948,10 +948,10 @@
         <v>1519.540889835969</v>
       </c>
       <c r="S8">
-        <v>0.005133920032371263</v>
+        <v>0.01460612494339414</v>
       </c>
       <c r="T8">
-        <v>0.005133920032371262</v>
+        <v>0.01460612494339415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>15.036898274585</v>
+        <v>29.225132043822</v>
       </c>
       <c r="R9">
-        <v>135.332084471265</v>
+        <v>263.026188394398</v>
       </c>
       <c r="S9">
-        <v>0.0004572329077400396</v>
+        <v>0.002528259289875389</v>
       </c>
       <c r="T9">
-        <v>0.0004572329077400396</v>
+        <v>0.00252825928987539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>775.0261767486593</v>
+        <v>457.6636702841171</v>
       </c>
       <c r="R10">
-        <v>6975.235590737932</v>
+        <v>4118.973032557054</v>
       </c>
       <c r="S10">
-        <v>0.02356652721182391</v>
+        <v>0.03959237632525557</v>
       </c>
       <c r="T10">
-        <v>0.0235665272118239</v>
+        <v>0.03959237632525558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>1.485616837023</v>
+        <v>19.304166804351</v>
       </c>
       <c r="R11">
-        <v>13.370551533207</v>
+        <v>173.737501239159</v>
       </c>
       <c r="S11">
-        <v>4.517373821220015E-05</v>
+        <v>0.001669998923639484</v>
       </c>
       <c r="T11">
-        <v>4.517373821220014E-05</v>
+        <v>0.001669998923639484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>9458.358943992176</v>
+        <v>3786.007672725278</v>
       </c>
       <c r="R12">
-        <v>85125.23049592959</v>
+        <v>34074.0690545275</v>
       </c>
       <c r="S12">
-        <v>0.2876040579272928</v>
+        <v>0.327526632069765</v>
       </c>
       <c r="T12">
-        <v>0.2876040579272927</v>
+        <v>0.3275266320697651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>599.0293400596049</v>
+        <v>242.5728432854999</v>
       </c>
       <c r="R13">
-        <v>5391.264060536445</v>
+        <v>2183.1555895695</v>
       </c>
       <c r="S13">
-        <v>0.01821492185259924</v>
+        <v>0.02098491954077234</v>
       </c>
       <c r="T13">
-        <v>0.01821492185259924</v>
+        <v>0.02098491954077235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>53.3502519030361</v>
+        <v>41.98834714099999</v>
       </c>
       <c r="R14">
-        <v>480.1522671273249</v>
+        <v>377.895124269</v>
       </c>
       <c r="S14">
-        <v>0.001622242191231556</v>
+        <v>0.003632402021881949</v>
       </c>
       <c r="T14">
-        <v>0.001622242191231556</v>
+        <v>0.003632402021881951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>2749.758693977006</v>
+        <v>657.5347900190555</v>
       </c>
       <c r="R15">
-        <v>24747.82824579306</v>
+        <v>5917.813110171501</v>
       </c>
       <c r="S15">
-        <v>0.08361299918850849</v>
+        <v>0.05688317981897245</v>
       </c>
       <c r="T15">
-        <v>0.08361299918850848</v>
+        <v>0.05688317981897247</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>5.270903017315</v>
+        <v>27.73469272383333</v>
       </c>
       <c r="R16">
-        <v>47.438127155835</v>
+        <v>249.6122345145</v>
       </c>
       <c r="S16">
-        <v>0.0001602744308708971</v>
+        <v>0.002399321735338199</v>
       </c>
       <c r="T16">
-        <v>0.0001602744308708971</v>
+        <v>0.002399321735338199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>680.6492322381652</v>
+        <v>374.1987613266351</v>
       </c>
       <c r="R17">
-        <v>6125.843090143487</v>
+        <v>3367.788851939716</v>
       </c>
       <c r="S17">
-        <v>0.02069677016657685</v>
+        <v>0.03237184670937773</v>
       </c>
       <c r="T17">
-        <v>0.02069677016657685</v>
+        <v>0.03237184670937773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>43.10778041033099</v>
+        <v>23.975243933823</v>
       </c>
       <c r="R18">
-        <v>387.9700236929789</v>
+        <v>215.777195404407</v>
       </c>
       <c r="S18">
-        <v>0.001310795313189597</v>
+        <v>0.002074092705956835</v>
       </c>
       <c r="T18">
-        <v>0.001310795313189597</v>
+        <v>0.002074092705956835</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>3.839229216457221</v>
+        <v>4.150014698466</v>
       </c>
       <c r="R19">
-        <v>34.55306294811499</v>
+        <v>37.350132286194</v>
       </c>
       <c r="S19">
-        <v>0.0001167409598752304</v>
+        <v>0.0003590167941340092</v>
       </c>
       <c r="T19">
-        <v>0.0001167409598752304</v>
+        <v>0.0003590167941340092</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>197.8801137679912</v>
+        <v>64.98896072685102</v>
       </c>
       <c r="R20">
-        <v>1780.921023911921</v>
+        <v>584.9006465416592</v>
       </c>
       <c r="S20">
-        <v>0.006017018812649082</v>
+        <v>0.005622179685985089</v>
       </c>
       <c r="T20">
-        <v>0.006017018812649081</v>
+        <v>0.005622179685985089</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.3793085156929999</v>
+        <v>2.741222036553001</v>
       </c>
       <c r="R21">
-        <v>3.413776641236999</v>
+        <v>24.67099832897701</v>
       </c>
       <c r="S21">
-        <v>1.153378392231328E-05</v>
+        <v>0.000237142472757153</v>
       </c>
       <c r="T21">
-        <v>1.153378392231328E-05</v>
+        <v>0.000237142472757153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N22">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O22">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P22">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q22">
-        <v>10882.02784043688</v>
+        <v>1765.459095271365</v>
       </c>
       <c r="R22">
-        <v>97938.25056393188</v>
+        <v>15889.13185744228</v>
       </c>
       <c r="S22">
-        <v>0.3308941206312934</v>
+        <v>0.1527294505229923</v>
       </c>
       <c r="T22">
-        <v>0.3308941206312934</v>
+        <v>0.1527294505229923</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.975427</v>
       </c>
       <c r="O23">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P23">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q23">
-        <v>689.195027844414</v>
+        <v>113.114517841416</v>
       </c>
       <c r="R23">
-        <v>6202.755250599726</v>
+        <v>1018.030660572744</v>
       </c>
       <c r="S23">
-        <v>0.02095662555048946</v>
+        <v>0.009785510297216617</v>
       </c>
       <c r="T23">
-        <v>0.02095662555048946</v>
+        <v>0.009785510297216618</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N24">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P24">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q24">
-        <v>61.38051325192333</v>
+        <v>19.579651116272</v>
       </c>
       <c r="R24">
-        <v>552.4246192673099</v>
+        <v>176.216860046448</v>
       </c>
       <c r="S24">
-        <v>0.001866421521264664</v>
+        <v>0.001693831006580455</v>
       </c>
       <c r="T24">
-        <v>0.001866421521264664</v>
+        <v>0.001693831006580455</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N25">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P25">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q25">
-        <v>3163.65141559232</v>
+        <v>306.616065218081</v>
       </c>
       <c r="R25">
-        <v>28472.86274033088</v>
+        <v>2759.544586962728</v>
       </c>
       <c r="S25">
-        <v>0.09619839872642161</v>
+        <v>0.02652528358640982</v>
       </c>
       <c r="T25">
-        <v>0.09619839872642159</v>
+        <v>0.02652528358640982</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2046,28 +2046,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N26">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O26">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P26">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q26">
-        <v>6.064277505042</v>
+        <v>12.93300747290933</v>
       </c>
       <c r="R26">
-        <v>54.578497545378</v>
+        <v>116.397067256184</v>
       </c>
       <c r="S26">
-        <v>0.0001843988824250653</v>
+        <v>0.001118831430440808</v>
       </c>
       <c r="T26">
-        <v>0.0001843988824250653</v>
+        <v>0.001118831430440808</v>
       </c>
     </row>
   </sheetData>
